--- a/spreadsheets/F18Test.xlsx
+++ b/spreadsheets/F18Test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
   <si>
     <t>Subject</t>
   </si>
@@ -818,6 +818,9 @@
     <t>ZZ</t>
   </si>
   <si>
+    <t> 223</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -1590,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1697,6 +1700,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="18" fillId="8" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="18" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -27596,8 +27602,8 @@
       <c r="A237" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B237" s="20">
-        <v>223</v>
+      <c r="B237" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="C237" s="20">
         <v>12</v>
@@ -27616,11 +27622,11 @@
       <c r="O237" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="P237" s="27">
-        <v>43191.416666667</v>
-      </c>
-      <c r="Q237" s="27">
-        <v>43191.458333333</v>
+      <c r="P237" s="36">
+        <v>43198.416666667</v>
+      </c>
+      <c r="Q237" s="36">
+        <v>43198.5</v>
       </c>
       <c r="R237" s="25" t="s">
         <v>132</v>
@@ -44580,10 +44586,10 @@
     </row>
     <row r="52019" spans="1:256">
       <c r="A52019" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52019" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52019" s="33"/>
     </row>
@@ -44598,82 +44604,82 @@
     </row>
     <row r="52023" spans="1:256">
       <c r="A52023" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52023" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52023" s="33"/>
     </row>
     <row r="52024" spans="1:256">
       <c r="A52024" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52024" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52024" s="33"/>
     </row>
     <row r="52025" spans="1:256">
       <c r="A52025" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52025" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52025" s="33"/>
     </row>
     <row r="52026" spans="1:256">
       <c r="A52026" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52026" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52026" s="33"/>
     </row>
     <row r="52027" spans="1:256">
       <c r="A52027" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52027" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52027" s="33"/>
     </row>
     <row r="52028" spans="1:256">
       <c r="A52028" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52028" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52028" s="33"/>
     </row>
     <row r="52029" spans="1:256">
       <c r="A52029" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52029" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52029" s="33"/>
     </row>
     <row r="52030" spans="1:256">
       <c r="A52030" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52030" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52030" s="33"/>
     </row>
     <row r="52031" spans="1:256">
       <c r="A52031" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52031" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U52031" s="33"/>
     </row>
@@ -44929,59 +44935,59 @@
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -44992,19 +44998,19 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>59</v>
@@ -45021,19 +45027,19 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>59</v>
@@ -45044,25 +45050,25 @@
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>59</v>
@@ -45073,31 +45079,31 @@
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -45105,22 +45111,22 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>59</v>
@@ -45134,22 +45140,22 @@
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>59</v>
@@ -45165,25 +45171,25 @@
     </row>
     <row r="14" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -45194,25 +45200,25 @@
     </row>
     <row r="15" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>59</v>
@@ -45223,25 +45229,25 @@
     </row>
     <row r="16" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>59</v>
@@ -45252,25 +45258,25 @@
     </row>
     <row r="17" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>59</v>
@@ -45281,25 +45287,25 @@
     </row>
     <row r="18" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>59</v>
@@ -45310,25 +45316,25 @@
     </row>
     <row r="19" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>59</v>
@@ -45339,25 +45345,25 @@
     </row>
     <row r="20" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>59</v>
@@ -45368,25 +45374,25 @@
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>59</v>
@@ -45397,25 +45403,25 @@
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>59</v>
@@ -45426,25 +45432,25 @@
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>59</v>
@@ -45455,25 +45461,25 @@
     </row>
     <row r="24" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>59</v>
@@ -45484,25 +45490,25 @@
     </row>
     <row r="25" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A25" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>59</v>
@@ -45513,25 +45519,25 @@
     </row>
     <row r="26" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>59</v>
@@ -45542,25 +45548,25 @@
     </row>
     <row r="27" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>59</v>
@@ -45571,25 +45577,25 @@
     </row>
     <row r="28" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>59</v>
@@ -45600,30 +45606,30 @@
     </row>
     <row r="29" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A30" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>59</v>
@@ -45634,25 +45640,25 @@
     </row>
     <row r="31" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>59</v>
@@ -45663,25 +45669,25 @@
     </row>
     <row r="32" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>59</v>
@@ -45692,25 +45698,25 @@
     </row>
     <row r="33" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>59</v>
@@ -45721,25 +45727,25 @@
     </row>
     <row r="34" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>59</v>
@@ -45750,25 +45756,25 @@
     </row>
     <row r="35" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>59</v>
@@ -45779,25 +45785,25 @@
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>59</v>
@@ -45808,25 +45814,25 @@
     </row>
     <row r="37" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>59</v>
@@ -45837,25 +45843,25 @@
     </row>
     <row r="38" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>59</v>
@@ -45866,25 +45872,25 @@
     </row>
     <row r="39" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>59</v>
@@ -45895,25 +45901,25 @@
     </row>
     <row r="40" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>59</v>
@@ -45927,22 +45933,22 @@
         <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>59</v>
@@ -45953,25 +45959,25 @@
     </row>
     <row r="42" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>59</v>
@@ -45982,25 +45988,25 @@
     </row>
     <row r="43" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>59</v>
@@ -46011,25 +46017,25 @@
     </row>
     <row r="44" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>59</v>
@@ -46040,25 +46046,25 @@
     </row>
     <row r="45" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>59</v>
@@ -46069,25 +46075,25 @@
     </row>
     <row r="46" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>59</v>
@@ -46101,22 +46107,22 @@
         <v>225</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>59</v>
@@ -46127,25 +46133,25 @@
     </row>
     <row r="48" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>59</v>
@@ -46156,25 +46162,25 @@
     </row>
     <row r="49" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A49" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>59</v>
@@ -46185,25 +46191,25 @@
     </row>
     <row r="50" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>59</v>
@@ -46217,22 +46223,22 @@
         <v>217</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>59</v>
@@ -46246,22 +46252,22 @@
         <v>231</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>59</v>
@@ -46277,25 +46283,25 @@
     </row>
     <row r="54" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A54" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>59</v>
@@ -46309,22 +46315,22 @@
         <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>59</v>
@@ -46338,22 +46344,22 @@
         <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>59</v>
@@ -46367,22 +46373,22 @@
         <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>59</v>
@@ -46396,22 +46402,22 @@
         <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>59</v>
@@ -46425,22 +46431,22 @@
         <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>59</v>
@@ -46454,22 +46460,22 @@
         <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>59</v>
@@ -46483,22 +46489,22 @@
         <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>59</v>
@@ -46512,22 +46518,22 @@
         <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>59</v>
@@ -46546,7 +46552,7 @@
     </row>
     <row r="64" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A64" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:10" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47892,13 +47898,13 @@
   <sheetData>
     <row r="1" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47906,10 +47912,10 @@
         <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47917,10 +47923,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47928,10 +47934,10 @@
         <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47939,10 +47945,10 @@
         <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47950,10 +47956,10 @@
         <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47961,10 +47967,10 @@
         <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47972,10 +47978,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47983,10 +47989,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -47994,10 +48000,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48005,10 +48011,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48016,10 +48022,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48027,10 +48033,10 @@
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48038,10 +48044,10 @@
         <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48049,10 +48055,10 @@
         <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48060,10 +48066,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48071,10 +48077,10 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48082,10 +48088,10 @@
         <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48093,10 +48099,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48104,10 +48110,10 @@
         <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48115,10 +48121,10 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48126,10 +48132,10 @@
         <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48137,10 +48143,10 @@
         <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48148,10 +48154,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48159,10 +48165,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48170,10 +48176,10 @@
         <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48181,10 +48187,10 @@
         <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48192,10 +48198,10 @@
         <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48203,10 +48209,10 @@
         <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48214,10 +48220,10 @@
         <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48225,10 +48231,10 @@
         <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48244,10 +48250,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48255,10 +48261,10 @@
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48266,10 +48272,10 @@
         <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48277,10 +48283,10 @@
         <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48288,10 +48294,10 @@
         <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48299,10 +48305,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
@@ -48310,10 +48316,10 @@
         <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:3" customHeight="1" ht="9.75" s="1" customFormat="1">
